--- a/working_data/function_8_data.xlsx
+++ b/working_data/function_8_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
   <si>
     <t>X_1</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3229,6 +3229,70 @@
         <v>11</v>
       </c>
     </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>9.1983</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <v>9.218299999999999</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_8_data.xlsx
+++ b/working_data/function_8_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
   <si>
     <t>X_1</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3293,6 +3293,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>0.21</v>
+      </c>
+      <c r="B91">
+        <v>0.41</v>
+      </c>
+      <c r="C91">
+        <v>0.21</v>
+      </c>
+      <c r="D91">
+        <v>0.799999</v>
+      </c>
+      <c r="E91">
+        <v>0.5999989999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.799999</v>
+      </c>
+      <c r="G91">
+        <v>0.4</v>
+      </c>
+      <c r="H91">
+        <v>0.799999</v>
+      </c>
+      <c r="I91">
+        <v>9.2725017399974</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_8_data.xlsx
+++ b/working_data/function_8_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="12">
   <si>
     <t>X_1</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3325,6 +3325,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>0.057373</v>
+      </c>
+      <c r="B92">
+        <v>0.08004699999999999</v>
+      </c>
+      <c r="C92">
+        <v>0.203423</v>
+      </c>
+      <c r="D92">
+        <v>0.023373</v>
+      </c>
+      <c r="E92">
+        <v>0.260007</v>
+      </c>
+      <c r="F92">
+        <v>0.343847</v>
+      </c>
+      <c r="G92">
+        <v>0.308406</v>
+      </c>
+      <c r="H92">
+        <v>0.812396</v>
+      </c>
+      <c r="I92">
+        <v>9.7610703404299</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_8_data.xlsx
+++ b/working_data/function_8_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="12">
   <si>
     <t>X_1</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3357,6 +3357,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>0.047373</v>
+      </c>
+      <c r="B93">
+        <v>0.090047</v>
+      </c>
+      <c r="C93">
+        <v>0.213423</v>
+      </c>
+      <c r="D93">
+        <v>0.014675</v>
+      </c>
+      <c r="E93">
+        <v>0.270007</v>
+      </c>
+      <c r="F93">
+        <v>0.353847</v>
+      </c>
+      <c r="G93">
+        <v>0.318406</v>
+      </c>
+      <c r="H93">
+        <v>0.822396</v>
+      </c>
+      <c r="I93">
+        <v>9.7568824399339</v>
+      </c>
+      <c r="J93" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
